--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 7 Guess Rule 5 .xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 7 Guess Rule 5 .xlsx_with_dialog_acts.xlsx
@@ -933,12 +933,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1139,12 +1139,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1887,12 +1887,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2349,12 +2349,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2721,12 +2721,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2889,12 +2889,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2977,12 +2977,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3229,12 +3229,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4111,12 +4111,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4321,12 +4321,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4363,12 +4363,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4405,12 +4405,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
